--- a/data/trans_bre/P40_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P40_R2-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.256985838489595</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.118465120274762</v>
+        <v>2.11846512027476</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3504303698820083</v>
@@ -649,7 +649,7 @@
         <v>0.1295433920139656</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1494784494387001</v>
+        <v>0.1494784494387</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7357553899750821</v>
+        <v>-1.020758173587919</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.538341732418024</v>
+        <v>-3.606214994380796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.064765913892229</v>
+        <v>-3.245870912954415</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.622358484143947</v>
+        <v>-2.15704093847378</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.05766070919967393</v>
+        <v>-0.07126499651421281</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2712508425495765</v>
+        <v>-0.2820870589451762</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.259566192769044</v>
+        <v>-0.2946814156574903</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1011190154380476</v>
+        <v>-0.1322031577935616</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.913109411539136</v>
+        <v>9.722865128960258</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.236903803244045</v>
+        <v>7.282016141147565</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.780229998513756</v>
+        <v>6.076674214413033</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.249679455922121</v>
+        <v>6.603017707162921</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.004464075047055</v>
+        <v>0.9874102786393184</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.80470142902399</v>
+        <v>0.8570066454240607</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7173383807135252</v>
+        <v>0.7810678159587379</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5191396847012278</v>
+        <v>0.5547946058172353</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.774891568595967</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.076467846566789</v>
+        <v>4.076467846566795</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3690627230080896</v>
@@ -749,7 +749,7 @@
         <v>0.3402370676097251</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2876706452521988</v>
+        <v>0.2876706452521992</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7911062144912252</v>
+        <v>-1.10673810101548</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.550636382163292</v>
+        <v>-2.782709007579114</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.860137086713207</v>
+        <v>-1.589431848339561</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.3847916118941068</v>
+        <v>-0.2467335185327295</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06963241163349931</v>
+        <v>-0.08859276020846404</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1938138486417305</v>
+        <v>-0.2136079504869661</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1498820223420809</v>
+        <v>-0.1313581140813976</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02847237511376156</v>
+        <v>-0.01199496047850958</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.04209319120467</v>
+        <v>10.10648887299056</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.076888753107507</v>
+        <v>8.11591120316718</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.116759128018707</v>
+        <v>9.627161129460164</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.556023924764993</v>
+        <v>8.522129392707019</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9850668825106892</v>
+        <v>1.020579223850137</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8110319316226722</v>
+        <v>0.8273599719392628</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.026944634253639</v>
+        <v>1.045354183530527</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7064000171692119</v>
+        <v>0.7301498454739338</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>11.94002955478274</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.090313827752103</v>
+        <v>9.09031382775211</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6571323331289448</v>
@@ -849,7 +849,7 @@
         <v>0.659211644975759</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4283941380018185</v>
+        <v>0.4283941380018189</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.135275131832759</v>
+        <v>3.613826007100639</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.729516186316655</v>
+        <v>-4.429470045144791</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.251239868656125</v>
+        <v>3.516863785725863</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.762859088063017</v>
+        <v>2.974961059869313</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2174205421996293</v>
+        <v>0.1804974641592332</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2145485642333018</v>
+        <v>-0.1986386537858397</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2196979348257684</v>
+        <v>0.1713005732785957</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1202968001658381</v>
+        <v>0.1254854526291528</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.37860373855574</v>
+        <v>18.62780876410127</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.342369456701277</v>
+        <v>8.111310582140806</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21.00959459487447</v>
+        <v>20.75581604404741</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.11217110510207</v>
+        <v>15.47933513542573</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.242546637067047</v>
+        <v>1.207198466753381</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.436290058176475</v>
+        <v>0.4355147324813918</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.285392417171459</v>
+        <v>1.265550069344207</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8512877316559895</v>
+        <v>0.8068139150544579</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7147803270542881</v>
+        <v>1.303796662436907</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.485114768498952</v>
+        <v>-4.676273996397786</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.504455967323283</v>
+        <v>-1.502174298357657</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.263194038110319</v>
+        <v>-1.327169112948174</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03433161081121304</v>
+        <v>0.06225751537118498</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1955944785474229</v>
+        <v>-0.2014187506933663</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07691930077768226</v>
+        <v>-0.07699960732028005</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05005117588413369</v>
+        <v>-0.05998268323560708</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.805070826503396</v>
+        <v>9.059624285509353</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.953779871883901</v>
+        <v>3.10305190122228</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.749607847333889</v>
+        <v>5.863115347175911</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.425852149477992</v>
+        <v>5.295295623856524</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4854713040215644</v>
+        <v>0.5099181599960657</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1986211027297448</v>
+        <v>0.1571309442109017</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3635732913780653</v>
+        <v>0.3631356002145327</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2757882832802787</v>
+        <v>0.2648011116273391</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.4161633313576205</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.683507161915059</v>
+        <v>0.6835071619150593</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.637595455710864</v>
+        <v>3.757626998030982</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.44839036998558</v>
+        <v>13.77372476308576</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.58648090962478</v>
+        <v>3.979130143319289</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10.65245053015441</v>
+        <v>10.6988710962833</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1883295220575297</v>
+        <v>0.1516945873283421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6902380833519406</v>
+        <v>0.7374847938628879</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1821112211966006</v>
+        <v>0.1568578032738066</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4183440721748678</v>
+        <v>0.4218079196705064</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.01285002263339</v>
+        <v>16.03886558941932</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.07503778348438</v>
+        <v>23.22582573814156</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.36162410978321</v>
+        <v>14.16377219980112</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.57589274218493</v>
+        <v>19.34209892776373</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9108394770041495</v>
+        <v>0.9232141756012914</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.627989416998076</v>
+        <v>1.707396617024473</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7170954083570901</v>
+        <v>0.6924384427741141</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.006663359668654</v>
+        <v>0.9962675926657949</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>25.67235005110227</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24.73417808962472</v>
+        <v>24.73417808962471</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>7.501946950732777</v>
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>28.17790206772264</v>
+        <v>28.24892322673426</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>26.69127259882485</v>
+        <v>26.44842620553833</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21.53673133937333</v>
+        <v>21.14312374269841</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18.41627703444183</v>
+        <v>18.52209833619392</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>4.185476001789432</v>
+        <v>3.915432867661492</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>3.939917694098288</v>
+        <v>3.841013146819132</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>2.537191316763886</v>
+        <v>2.353364557059204</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.219747118864068</v>
+        <v>1.347908091655881</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>35.23258960356684</v>
+        <v>35.1915911035606</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>34.32751532832835</v>
+        <v>34.50522190760049</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29.72763900656855</v>
+        <v>29.25283279781409</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29.30180811256932</v>
+        <v>29.6832084856973</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>14.19737713748663</v>
+        <v>14.42255624258207</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>27.02768327467535</v>
+        <v>26.38554835025099</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>9.148137484113946</v>
+        <v>8.409902722416033</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>6.056551930847067</v>
+        <v>6.587564127358509</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>9.118123411356216</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9.180438466285587</v>
+        <v>9.18043846628559</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7864796407376179</v>
@@ -1249,7 +1249,7 @@
         <v>0.5716187009433905</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4950926943705917</v>
+        <v>0.4950926943705919</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.56013768227366</v>
+        <v>10.58982242944075</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.858497010176604</v>
+        <v>8.024424110490463</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.832635056167144</v>
+        <v>7.25043728322661</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.420222054792203</v>
+        <v>7.378266782976691</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6289554328682839</v>
+        <v>0.6340483519094496</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4399978303283398</v>
+        <v>0.4506050896724226</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3979359620775532</v>
+        <v>0.4298641910609102</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3778094738696827</v>
+        <v>0.3727165136452865</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.84175103047148</v>
+        <v>14.59304542499756</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.10389306103258</v>
+        <v>11.9024053923292</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.88901393598607</v>
+        <v>11.19548389513885</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.93086414300047</v>
+        <v>11.00632502821039</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9878684253142757</v>
+        <v>0.9866164131799005</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7667604153054485</v>
+        <v>0.7465479902979573</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7237330375552393</v>
+        <v>0.7439690236802889</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6227496685648966</v>
+        <v>0.6165515530489613</v>
       </c>
     </row>
     <row r="25">
